--- a/ML_models_notebooks/SB_preadmisssion/Charactristics table/Data_charactristics.xlsx
+++ b/ML_models_notebooks/SB_preadmisssion/Charactristics table/Data_charactristics.xlsx
@@ -34,13 +34,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">23558(74.58%)
-1710(5.41%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5910(18.71%)
-408(1.29%)
+    <t xml:space="preserve">23558(93.23%)
+1710(6.77%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5910(93.54%)
+408(6.46%)
 </t>
   </si>
   <si>
@@ -52,13 +52,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">25047(79.3%)
-221(0.7%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6270(19.85%)
-48(0.15%)
+    <t xml:space="preserve">25047(99.13%)
+221(0.87%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6270(99.24%)
+48(0.76%)
 </t>
   </si>
   <si>
@@ -94,13 +94,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">24439(77.37%)
-829(2.62%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6088(19.27%)
-230(0.73%)
+    <t xml:space="preserve">24439(96.72%)
+829(3.28%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6088(96.36%)
+230(3.64%)
 </t>
   </si>
   <si>
@@ -133,13 +133,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">23184(73.4%)
-2084(6.6%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5795(18.35%)
-523(1.66%)
+    <t xml:space="preserve">23184(91.75%)
+2084(8.25%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5795(91.72%)
+523(8.28%)
 </t>
   </si>
   <si>
@@ -151,13 +151,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">14437(45.71%)
-10831(34.29%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3673(11.63%)
-2645(8.37%)
+    <t xml:space="preserve">14437(57.14%)
+10831(42.86%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3673(58.14%)
+2645(41.86%)
 </t>
   </si>
   <si>
@@ -214,13 +214,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">25215(79.83%)
-53(0.17%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6305(19.96%)
-13(0.04%)
+    <t xml:space="preserve">25215(99.79%)
+53(0.21%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6305(99.79%)
+13(0.21%)
 </t>
   </si>
   <si>
@@ -265,13 +265,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">23000(72.82%)
-2268(7.18%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5767(18.26%)
-551(1.74%)
+    <t xml:space="preserve">23000(91.02%)
+2268(8.98%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5767(91.28%)
+551(8.72%)
 </t>
   </si>
   <si>
@@ -307,13 +307,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">22679(71.8%)
-2589(8.2%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5672(17.96%)
-646(2.05%)
+    <t xml:space="preserve">22679(89.75%)
+2589(10.25%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5672(89.78%)
+646(10.22%)
 </t>
   </si>
   <si>
@@ -337,13 +337,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">22241(70.41%)
-3027(9.58%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5536(17.53%)
-782(2.48%)
+    <t xml:space="preserve">22241(88.02%)
+3027(11.98%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5536(87.62%)
+782(12.38%)
 </t>
   </si>
   <si>
@@ -355,13 +355,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">22830(72.28%)
-2438(7.72%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5766(18.25%)
-552(1.75%)
+    <t xml:space="preserve">22830(90.35%)
+2438(9.65%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5766(91.26%)
+552(8.74%)
 </t>
   </si>
   <si>
@@ -385,13 +385,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">25253(79.95%)
-15(0.05%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6313(19.99%)
-5(0.02%)
+    <t xml:space="preserve">25253(99.94%)
+15(0.06%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6313(99.92%)
+5(0.08%)
 </t>
   </si>
   <si>
@@ -403,13 +403,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">12934(40.95%)
-12334(39.05%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3221(10.2%)
-3097(9.8%)
+    <t xml:space="preserve">12934(51.19%)
+12334(48.81%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3221(50.98%)
+3097(49.02%)
 </t>
   </si>
   <si>
@@ -445,13 +445,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">17489(55.37%)
-7779(24.63%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4391(13.9%)
-1927(6.1%)
+    <t xml:space="preserve">17489(69.21%)
+7779(30.79%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4391(69.5%)
+1927(30.5%)
 </t>
   </si>
   <si>
@@ -463,13 +463,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">14051(44.48%)
-11217(35.51%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3557(11.26%)
-2761(8.74%)
+    <t xml:space="preserve">14051(55.61%)
+11217(44.39%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3557(56.3%)
+2761(43.7%)
 </t>
   </si>
   <si>
@@ -534,11 +534,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">25268(80.0%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6318(20.0%)
+    <t xml:space="preserve">25268(100.0%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6318(100.0%)
 </t>
   </si>
   <si>
@@ -562,13 +562,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">24420(77.31%)
-848(2.68%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6125(19.39%)
-193(0.61%)
+    <t xml:space="preserve">24420(96.64%)
+848(3.36%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6125(96.95%)
+193(3.05%)
 </t>
   </si>
   <si>
@@ -580,13 +580,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">21432(67.85%)
-3836(12.14%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5345(16.92%)
-973(3.08%)
+    <t xml:space="preserve">21432(84.82%)
+3836(15.18%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5345(84.6%)
+973(15.4%)
 </t>
   </si>
   <si>
@@ -622,13 +622,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">23320(73.83%)
-1948(6.17%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5834(18.47%)
-484(1.53%)
+    <t xml:space="preserve">23320(92.29%)
+1948(7.71%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5834(92.34%)
+484(7.66%)
 </t>
   </si>
   <si>
@@ -652,13 +652,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">25207(79.8%)
-61(0.19%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6292(19.92%)
-26(0.08%)
+    <t xml:space="preserve">25207(99.76%)
+61(0.24%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6292(99.59%)
+26(0.41%)
 </t>
   </si>
   <si>
@@ -679,13 +679,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">20139(63.76%)
-5129(16.24%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4998(15.82%)
-1320(4.18%)
+    <t xml:space="preserve">20139(79.7%)
+5129(20.3%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4998(79.11%)
+1320(20.89%)
 </t>
   </si>
   <si>
@@ -718,13 +718,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">17755(56.21%)
-7513(23.79%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4481(14.19%)
-1837(5.82%)
+    <t xml:space="preserve">17755(70.27%)
+7513(29.73%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4481(70.92%)
+1837(29.08%)
 </t>
   </si>
   <si>
@@ -736,13 +736,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">19140(60.6%)
-6128(19.4%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4756(15.06%)
-1562(4.95%)
+    <t xml:space="preserve">19140(75.75%)
+6128(24.25%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4756(75.28%)
+1562(24.72%)
 </t>
   </si>
   <si>
@@ -766,13 +766,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">19321(61.17%)
-5947(18.83%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4856(15.37%)
-1462(4.63%)
+    <t xml:space="preserve">19321(76.46%)
+5947(23.54%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4856(76.86%)
+1462(23.14%)
 </t>
   </si>
 </sst>

--- a/ML_models_notebooks/SB_preadmisssion/Charactristics table/Data_charactristics.xlsx
+++ b/ML_models_notebooks/SB_preadmisssion/Charactristics table/Data_charactristics.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Lab" sheetId="1" r:id="rId1"/>
     <sheet name="Categorical" sheetId="2" r:id="rId2"/>
+    <sheet name="Ethniciy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="216">
   <si>
     <t>Variable</t>
   </si>
@@ -44,6 +45,510 @@
 </t>
   </si>
   <si>
+    <t>chronic_liver_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31520(99.79%)
+66(0.21%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25215(99.79%)
+53(0.21%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6305(99.79%)
+13(0.21%)
+</t>
+  </si>
+  <si>
+    <t>oxygen saturation max</t>
+  </si>
+  <si>
+    <t>99.46(1.05)</t>
+  </si>
+  <si>
+    <t>99.47(1.04)</t>
+  </si>
+  <si>
+    <t>white blood count min</t>
+  </si>
+  <si>
+    <t>9.99(4.72)</t>
+  </si>
+  <si>
+    <t>10.0(4.74)</t>
+  </si>
+  <si>
+    <t>9.97(4.64)</t>
+  </si>
+  <si>
+    <t>congestive heart failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25137(79.58%)
+6449(20.42%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20139(79.7%)
+5129(20.3%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4998(79.11%)
+1320(20.89%)
+</t>
+  </si>
+  <si>
+    <t>cyclosporine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31566(99.94%)
+20(0.06%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25253(99.94%)
+15(0.06%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6313(99.92%)
+5(0.08%)
+</t>
+  </si>
+  <si>
+    <t>calcium max</t>
+  </si>
+  <si>
+    <t>8.58(0.7)</t>
+  </si>
+  <si>
+    <t>8.58(0.71)</t>
+  </si>
+  <si>
+    <t>8.58(0.67)</t>
+  </si>
+  <si>
+    <t>chloride max</t>
+  </si>
+  <si>
+    <t>105.83(5.42)</t>
+  </si>
+  <si>
+    <t>105.81(5.43)</t>
+  </si>
+  <si>
+    <t>105.92(5.4)</t>
+  </si>
+  <si>
+    <t>hemoglobin min</t>
+  </si>
+  <si>
+    <t>10.55(2.21)</t>
+  </si>
+  <si>
+    <t>10.53(2.21)</t>
+  </si>
+  <si>
+    <t>10.6(2.22)</t>
+  </si>
+  <si>
+    <t>diabetes Type2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23896(75.65%)
+7690(24.35%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19140(75.75%)
+6128(24.25%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4756(75.28%)
+1562(24.72%)
+</t>
+  </si>
+  <si>
+    <t>invasive ventilation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22236(70.4%)
+9350(29.6%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17755(70.27%)
+7513(29.73%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4481(70.92%)
+1837(29.08%)
+</t>
+  </si>
+  <si>
+    <t>temperature_max</t>
+  </si>
+  <si>
+    <t>37.37(0.65)</t>
+  </si>
+  <si>
+    <t>37.37(0.64)</t>
+  </si>
+  <si>
+    <t>mild_liver_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28979(91.75%)
+2607(8.25%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23184(91.75%)
+2084(8.25%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5795(91.72%)
+523(8.28%)
+</t>
+  </si>
+  <si>
+    <t>tracheostomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31499(99.72%)
+87(0.28%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25207(99.76%)
+61(0.24%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6292(99.59%)
+26(0.41%)
+</t>
+  </si>
+  <si>
+    <t>hematocrit min</t>
+  </si>
+  <si>
+    <t>31.51(6.5)</t>
+  </si>
+  <si>
+    <t>31.48(6.5)</t>
+  </si>
+  <si>
+    <t>31.65(6.5)</t>
+  </si>
+  <si>
+    <t>HISPANIC/LATINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30527(96.65%)
+1059(3.35%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24439(96.72%)
+829(3.28%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6088(96.36%)
+230(3.64%)
+</t>
+  </si>
+  <si>
+    <t>chronic_pulmonary_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24177(76.54%)
+7409(23.46%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19321(76.46%)
+5947(23.54%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4856(76.86%)
+1462(23.14%)
+</t>
+  </si>
+  <si>
+    <t>white blood count max</t>
+  </si>
+  <si>
+    <t>13.13(6.23)</t>
+  </si>
+  <si>
+    <t>13.14(6.22)</t>
+  </si>
+  <si>
+    <t>aniongap max</t>
+  </si>
+  <si>
+    <t>14.67(3.46)</t>
+  </si>
+  <si>
+    <t>14.66(3.44)</t>
+  </si>
+  <si>
+    <t>14.67(3.54)</t>
+  </si>
+  <si>
+    <t>urine output</t>
+  </si>
+  <si>
+    <t>260.31(251.65)</t>
+  </si>
+  <si>
+    <t>259.08(251.82)</t>
+  </si>
+  <si>
+    <t>265.23(250.89)</t>
+  </si>
+  <si>
+    <t>BLACK/AFRICAN AMERICAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29154(92.3%)
+2432(7.7%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23320(92.29%)
+1948(7.71%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5834(92.34%)
+484(7.66%)
+</t>
+  </si>
+  <si>
+    <t>heart rate max</t>
+  </si>
+  <si>
+    <t>101.8(19.63)</t>
+  </si>
+  <si>
+    <t>101.79(19.57)</t>
+  </si>
+  <si>
+    <t>101.85(19.87)</t>
+  </si>
+  <si>
+    <t>myocardial infarction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26777(84.77%)
+4809(15.23%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21432(84.82%)
+3836(15.18%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5345(84.6%)
+973(15.4%)
+</t>
+  </si>
+  <si>
+    <t>ASIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30643(97.01%)
+943(2.99%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24516(97.02%)
+752(2.98%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6127(96.98%)
+191(3.02%)
+</t>
+  </si>
+  <si>
+    <t>severe_liver_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30545(96.7%)
+1041(3.3%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24420(96.64%)
+848(3.36%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6125(96.95%)
+193(3.05%)
+</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21880(69.27%)
+9706(30.73%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17489(69.21%)
+7779(30.79%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4391(69.5%)
+1927(30.5%)
+</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17608(55.75%)
+13978(44.25%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14051(55.61%)
+11217(44.39%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3557(56.3%)
+2761(43.7%)
+</t>
+  </si>
+  <si>
+    <t>eGFR</t>
+  </si>
+  <si>
+    <t>81.25(23.86)</t>
+  </si>
+  <si>
+    <t>81.21(23.95)</t>
+  </si>
+  <si>
+    <t>81.41(23.49)</t>
+  </si>
+  <si>
+    <t>chronic kidney disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28596(90.53%)
+2990(9.47%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22830(90.35%)
+2438(9.65%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5766(91.26%)
+552(8.74%)
+</t>
+  </si>
+  <si>
+    <t>bicarbonate min</t>
+  </si>
+  <si>
+    <t>22.89(3.74)</t>
+  </si>
+  <si>
+    <t>22.89(3.73)</t>
+  </si>
+  <si>
+    <t>22.88(3.77)</t>
+  </si>
+  <si>
+    <t>Prothrombin time</t>
+  </si>
+  <si>
+    <t>15.43(7.5)</t>
+  </si>
+  <si>
+    <t>15.43(7.49)</t>
+  </si>
+  <si>
+    <t>potassium_max</t>
+  </si>
+  <si>
+    <t>4.37(0.65)</t>
+  </si>
+  <si>
+    <t>4.37(0.66)</t>
+  </si>
+  <si>
+    <t>respiratory rate max</t>
+  </si>
+  <si>
+    <t>27.36(6.22)</t>
+  </si>
+  <si>
+    <t>27.35(6.24)</t>
+  </si>
+  <si>
+    <t>27.37(6.13)</t>
+  </si>
+  <si>
+    <t>creatinine max</t>
+  </si>
+  <si>
+    <t>0.85(0.29)</t>
+  </si>
+  <si>
+    <t>0.86(0.29)</t>
+  </si>
+  <si>
+    <t>0.85(0.27)</t>
+  </si>
+  <si>
+    <t>blood urine nitrogen min</t>
+  </si>
+  <si>
+    <t>16.43(10.12)</t>
+  </si>
+  <si>
+    <t>16.5(10.25)</t>
+  </si>
+  <si>
+    <t>16.14(9.57)</t>
+  </si>
+  <si>
+    <t>kidney_transplant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31586(100.0%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25268(100.0%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6318(100.0%)
+</t>
+  </si>
+  <si>
     <t>hfnc</t>
   </si>
   <si>
@@ -62,16 +567,16 @@
 </t>
   </si>
   <si>
-    <t>oxygen saturation min</t>
-  </si>
-  <si>
-    <t>92.37(4.68)</t>
-  </si>
-  <si>
-    <t>92.37(4.69)</t>
-  </si>
-  <si>
-    <t>92.36(4.65)</t>
+    <t>hemoglobin_max</t>
+  </si>
+  <si>
+    <t>11.77(2.03)</t>
+  </si>
+  <si>
+    <t>11.76(2.03)</t>
+  </si>
+  <si>
+    <t>11.83(2.04)</t>
   </si>
   <si>
     <t>weight_max</t>
@@ -86,60 +591,39 @@
     <t>83.31(27.32)</t>
   </si>
   <si>
-    <t>HISPANIC/LATINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30527(96.65%)
-1059(3.35%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24439(96.72%)
-829(3.28%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6088(96.36%)
-230(3.64%)
-</t>
-  </si>
-  <si>
-    <t>chloride max</t>
-  </si>
-  <si>
-    <t>105.83(5.42)</t>
-  </si>
-  <si>
-    <t>105.81(5.43)</t>
-  </si>
-  <si>
-    <t>105.92(5.4)</t>
-  </si>
-  <si>
-    <t>potassium_max</t>
-  </si>
-  <si>
-    <t>4.37(0.65)</t>
-  </si>
-  <si>
-    <t>4.37(0.66)</t>
-  </si>
-  <si>
-    <t>mild_liver_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28979(91.75%)
-2607(8.25%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23184(91.75%)
-2084(8.25%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5795(91.72%)
-523(8.28%)
+    <t>chronic_heart_failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27777(87.94%)
+3809(12.06%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22241(88.02%)
+3027(11.98%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5536(87.62%)
+782(12.38%)
+</t>
+  </si>
+  <si>
+    <t>hypertension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16155(51.15%)
+15431(48.85%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12934(51.19%)
+12334(48.81%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3221(50.98%)
+3097(49.02%)
 </t>
   </si>
   <si>
@@ -161,100 +645,79 @@
 </t>
   </si>
   <si>
-    <t>bicarbonate min</t>
-  </si>
-  <si>
-    <t>22.89(3.74)</t>
-  </si>
-  <si>
-    <t>22.89(3.73)</t>
-  </si>
-  <si>
-    <t>22.88(3.77)</t>
-  </si>
-  <si>
-    <t>creatinine max</t>
-  </si>
-  <si>
-    <t>0.85(0.29)</t>
-  </si>
-  <si>
-    <t>0.86(0.29)</t>
-  </si>
-  <si>
-    <t>0.85(0.27)</t>
-  </si>
-  <si>
-    <t>Prothrombin time</t>
-  </si>
-  <si>
-    <t>15.43(7.5)</t>
-  </si>
-  <si>
-    <t>15.43(7.49)</t>
-  </si>
-  <si>
-    <t>hematocrit min</t>
-  </si>
-  <si>
-    <t>31.51(6.5)</t>
-  </si>
-  <si>
-    <t>31.48(6.5)</t>
-  </si>
-  <si>
-    <t>31.65(6.5)</t>
-  </si>
-  <si>
-    <t>chronic_liver_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31520(99.79%)
-66(0.21%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25215(99.79%)
-53(0.21%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6305(99.79%)
-13(0.21%)
-</t>
-  </si>
-  <si>
-    <t>white blood count max</t>
-  </si>
-  <si>
-    <t>13.13(6.23)</t>
-  </si>
-  <si>
-    <t>13.14(6.22)</t>
-  </si>
-  <si>
-    <t>respiratory rate max</t>
-  </si>
-  <si>
-    <t>27.36(6.22)</t>
-  </si>
-  <si>
-    <t>27.35(6.24)</t>
-  </si>
-  <si>
-    <t>27.37(6.13)</t>
-  </si>
-  <si>
-    <t>calcium max</t>
-  </si>
-  <si>
-    <t>8.58(0.7)</t>
-  </si>
-  <si>
-    <t>8.58(0.71)</t>
-  </si>
-  <si>
-    <t>8.58(0.67)</t>
+    <t>calcium min</t>
+  </si>
+  <si>
+    <t>8.26(0.74)</t>
+  </si>
+  <si>
+    <t>8.27(0.72)</t>
+  </si>
+  <si>
+    <t>sodium max</t>
+  </si>
+  <si>
+    <t>139.5(4.16)</t>
+  </si>
+  <si>
+    <t>139.48(4.15)</t>
+  </si>
+  <si>
+    <t>139.56(4.18)</t>
+  </si>
+  <si>
+    <t>creatinine min</t>
+  </si>
+  <si>
+    <t>0.78(0.28)</t>
+  </si>
+  <si>
+    <t>0.78(0.29)</t>
+  </si>
+  <si>
+    <t>0.77(0.27)</t>
+  </si>
+  <si>
+    <t>peripheral_vascular_disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28351(89.76%)
+3235(10.24%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22679(89.75%)
+2589(10.25%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5672(89.78%)
+646(10.22%)
+</t>
+  </si>
+  <si>
+    <t>diastolic blood pressure max</t>
+  </si>
+  <si>
+    <t>87.9(19.08)</t>
+  </si>
+  <si>
+    <t>87.82(19.03)</t>
+  </si>
+  <si>
+    <t>88.24(19.32)</t>
+  </si>
+  <si>
+    <t>platelets_min</t>
+  </si>
+  <si>
+    <t>193.41(87.11)</t>
+  </si>
+  <si>
+    <t>193.72(87.36)</t>
+  </si>
+  <si>
+    <t>192.17(86.09)</t>
   </si>
   <si>
     <t>sepsis</t>
@@ -275,6 +738,18 @@
 </t>
   </si>
   <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>64.08(16.86)</t>
+  </si>
+  <si>
+    <t>64.08(16.83)</t>
+  </si>
+  <si>
+    <t>64.1(16.97)</t>
+  </si>
+  <si>
     <t>systolic blood pressure max</t>
   </si>
   <si>
@@ -287,204 +762,6 @@
     <t>148.29(21.54)</t>
   </si>
   <si>
-    <t>platelets_min</t>
-  </si>
-  <si>
-    <t>193.41(87.11)</t>
-  </si>
-  <si>
-    <t>193.72(87.36)</t>
-  </si>
-  <si>
-    <t>192.17(86.09)</t>
-  </si>
-  <si>
-    <t>peripheral_vascular_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28351(89.76%)
-3235(10.24%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22679(89.75%)
-2589(10.25%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5672(89.78%)
-646(10.22%)
-</t>
-  </si>
-  <si>
-    <t>hemoglobin min</t>
-  </si>
-  <si>
-    <t>10.55(2.21)</t>
-  </si>
-  <si>
-    <t>10.53(2.21)</t>
-  </si>
-  <si>
-    <t>10.6(2.22)</t>
-  </si>
-  <si>
-    <t>chronic_heart_failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27777(87.94%)
-3809(12.06%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22241(88.02%)
-3027(11.98%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5536(87.62%)
-782(12.38%)
-</t>
-  </si>
-  <si>
-    <t>chronic kidney disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28596(90.53%)
-2990(9.47%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22830(90.35%)
-2438(9.65%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5766(91.26%)
-552(8.74%)
-</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>64.08(16.86)</t>
-  </si>
-  <si>
-    <t>64.08(16.83)</t>
-  </si>
-  <si>
-    <t>64.1(16.97)</t>
-  </si>
-  <si>
-    <t>cyclosporine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31566(99.94%)
-20(0.06%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25253(99.94%)
-15(0.06%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6313(99.92%)
-5(0.08%)
-</t>
-  </si>
-  <si>
-    <t>hypertension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16155(51.15%)
-15431(48.85%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12934(51.19%)
-12334(48.81%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3221(50.98%)
-3097(49.02%)
-</t>
-  </si>
-  <si>
-    <t>heart rate max</t>
-  </si>
-  <si>
-    <t>101.8(19.63)</t>
-  </si>
-  <si>
-    <t>101.79(19.57)</t>
-  </si>
-  <si>
-    <t>101.85(19.87)</t>
-  </si>
-  <si>
-    <t>urine output</t>
-  </si>
-  <si>
-    <t>260.31(251.65)</t>
-  </si>
-  <si>
-    <t>259.08(251.82)</t>
-  </si>
-  <si>
-    <t>265.23(250.89)</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21880(69.27%)
-9706(30.73%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17489(69.21%)
-7779(30.79%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4391(69.5%)
-1927(30.5%)
-</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17608(55.75%)
-13978(44.25%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14051(55.61%)
-11217(44.39%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3557(56.3%)
-2761(43.7%)
-</t>
-  </si>
-  <si>
-    <t>creatinine min</t>
-  </si>
-  <si>
-    <t>0.78(0.28)</t>
-  </si>
-  <si>
-    <t>0.78(0.29)</t>
-  </si>
-  <si>
-    <t>0.77(0.27)</t>
-  </si>
-  <si>
     <t>bicarbonate max</t>
   </si>
   <si>
@@ -497,13 +774,16 @@
     <t>24.87(3.58)</t>
   </si>
   <si>
-    <t>oxygen saturation max</t>
-  </si>
-  <si>
-    <t>99.46(1.05)</t>
-  </si>
-  <si>
-    <t>99.47(1.04)</t>
+    <t>oxygen saturation min</t>
+  </si>
+  <si>
+    <t>92.37(4.68)</t>
+  </si>
+  <si>
+    <t>92.37(4.69)</t>
+  </si>
+  <si>
+    <t>92.36(4.65)</t>
   </si>
   <si>
     <t>aniongap min</t>
@@ -515,264 +795,18 @@
     <t>12.34(2.88)</t>
   </si>
   <si>
-    <t>aniongap max</t>
-  </si>
-  <si>
-    <t>14.67(3.46)</t>
-  </si>
-  <si>
-    <t>14.66(3.44)</t>
-  </si>
-  <si>
-    <t>14.67(3.54)</t>
-  </si>
-  <si>
-    <t>kidney_transplant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31586(100.0%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25268(100.0%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6318(100.0%)
-</t>
-  </si>
-  <si>
-    <t>diastolic blood pressure max</t>
-  </si>
-  <si>
-    <t>87.9(19.08)</t>
-  </si>
-  <si>
-    <t>87.82(19.03)</t>
-  </si>
-  <si>
-    <t>88.24(19.32)</t>
-  </si>
-  <si>
-    <t>severe_liver_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30545(96.7%)
-1041(3.3%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24420(96.64%)
-848(3.36%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6125(96.95%)
-193(3.05%)
-</t>
-  </si>
-  <si>
-    <t>myocardial infarction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26777(84.77%)
-4809(15.23%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21432(84.82%)
-3836(15.18%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5345(84.6%)
-973(15.4%)
-</t>
-  </si>
-  <si>
-    <t>blood urine nitrogen min</t>
-  </si>
-  <si>
-    <t>16.43(10.12)</t>
-  </si>
-  <si>
-    <t>16.5(10.25)</t>
-  </si>
-  <si>
-    <t>16.14(9.57)</t>
-  </si>
-  <si>
-    <t>sodium max</t>
-  </si>
-  <si>
-    <t>139.5(4.16)</t>
-  </si>
-  <si>
-    <t>139.48(4.15)</t>
-  </si>
-  <si>
-    <t>139.56(4.18)</t>
-  </si>
-  <si>
-    <t>BLACK/AFRICAN AMERICAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29154(92.3%)
-2432(7.7%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23320(92.29%)
-1948(7.71%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5834(92.34%)
-484(7.66%)
-</t>
-  </si>
-  <si>
-    <t>white blood count min</t>
-  </si>
-  <si>
-    <t>9.99(4.72)</t>
-  </si>
-  <si>
-    <t>10.0(4.74)</t>
-  </si>
-  <si>
-    <t>9.97(4.64)</t>
-  </si>
-  <si>
-    <t>tracheostomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31499(99.72%)
-87(0.28%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25207(99.76%)
-61(0.24%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6292(99.59%)
-26(0.41%)
-</t>
-  </si>
-  <si>
-    <t>calcium min</t>
-  </si>
-  <si>
-    <t>8.26(0.74)</t>
-  </si>
-  <si>
-    <t>8.27(0.72)</t>
-  </si>
-  <si>
-    <t>congestive heart failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25137(79.58%)
-6449(20.42%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20139(79.7%)
-5129(20.3%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4998(79.11%)
-1320(20.89%)
-</t>
-  </si>
-  <si>
-    <t>hemoglobin_max</t>
-  </si>
-  <si>
-    <t>11.77(2.03)</t>
-  </si>
-  <si>
-    <t>11.76(2.03)</t>
-  </si>
-  <si>
-    <t>11.83(2.04)</t>
-  </si>
-  <si>
-    <t>temperature_max</t>
-  </si>
-  <si>
-    <t>37.37(0.65)</t>
-  </si>
-  <si>
-    <t>37.37(0.64)</t>
-  </si>
-  <si>
-    <t>invasive ventilation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22236(70.4%)
-9350(29.6%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17755(70.27%)
-7513(29.73%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4481(70.92%)
-1837(29.08%)
-</t>
-  </si>
-  <si>
-    <t>diabetes Type2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23896(75.65%)
-7690(24.35%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19140(75.75%)
-6128(24.25%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4756(75.28%)
-1562(24.72%)
-</t>
-  </si>
-  <si>
-    <t>eGFR</t>
-  </si>
-  <si>
-    <t>81.25(23.86)</t>
-  </si>
-  <si>
-    <t>81.21(23.95)</t>
-  </si>
-  <si>
-    <t>81.41(23.49)</t>
-  </si>
-  <si>
-    <t>chronic_pulmonary_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24177(76.54%)
-7409(23.46%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19321(76.46%)
-5947(23.54%)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4856(76.86%)
-1462(23.14%)
+    <t>Other_ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5272(16.69%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4250(16.82%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1022(16.18%)
 </t>
   </si>
 </sst>
@@ -1105,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1143,51 +1177,42 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1200,39 +1225,39 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>34</v>
       </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -1252,15 +1277,6 @@
       <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -1275,43 +1291,34 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
         <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1375,15 +1382,6 @@
       <c r="A26" t="s">
         <v>96</v>
       </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
@@ -1413,95 +1411,95 @@
       <c r="A30" t="s">
         <v>112</v>
       </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>116</v>
       </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>120</v>
       </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
         <v>124</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
         <v>125</v>
-      </c>
-      <c r="C33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
         <v>128</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>129</v>
-      </c>
-      <c r="C34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
         <v>132</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>133</v>
-      </c>
-      <c r="C35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
         <v>135</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>136</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>137</v>
-      </c>
-      <c r="D36" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>138</v>
       </c>
-      <c r="B37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
@@ -1526,6 +1524,15 @@
       <c r="A40" t="s">
         <v>150</v>
       </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
@@ -1536,72 +1543,72 @@
       <c r="A42" t="s">
         <v>158</v>
       </c>
-      <c r="B42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>162</v>
       </c>
-      <c r="B43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" t="s">
-        <v>164</v>
-      </c>
-      <c r="D43" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>166</v>
       </c>
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
         <v>170</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>171</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>172</v>
-      </c>
-      <c r="D45" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" t="s">
         <v>174</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B47" t="s">
-        <v>179</v>
-      </c>
-      <c r="C47" t="s">
-        <v>179</v>
-      </c>
-      <c r="D47" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>181</v>
       </c>
+      <c r="B48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
@@ -1621,43 +1628,75 @@
       <c r="A50" t="s">
         <v>189</v>
       </c>
-      <c r="B50" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="B52" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="B54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1667,7 +1706,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1717,44 +1756,72 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1771,18 +1838,32 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
         <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1827,6 +1908,20 @@
         <v>95</v>
       </c>
     </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>100</v>
@@ -1855,32 +1950,32 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1897,20 +1992,6 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" t="s">
-        <v>153</v>
-      </c>
-    </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>154</v>
@@ -1925,91 +2006,89 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="B47" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" t="s">
         <v>192</v>
       </c>
-      <c r="B51" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>196</v>
-      </c>
-      <c r="B52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>204</v>
-      </c>
-      <c r="B54" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" t="s">
-        <v>207</v>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>